--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywnm1\Documents\Programming\BoxSorter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C58774-E757-44E0-B3B7-016330A55167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,36 +146,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,81 +189,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7991475" cy="2447925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -425,28 +422,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.25"/>
-    <col customWidth="1" min="2" max="2" width="32.63"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="12.25"/>
-    <col customWidth="1" min="5" max="5" width="29.75"/>
-    <col customWidth="1" min="6" max="6" width="77.0"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" customWidth="1"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -474,16 +474,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>53.5</v>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -508,16 +508,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -525,16 +525,16 @@
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>65.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>9.99</v>
@@ -551,7 +551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -559,7 +559,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4">
         <v>27.97</v>
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
         <v>6.95</v>
@@ -585,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -593,83 +593,84 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="7">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
         <f>SUM(C2:C17)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <f>SUMPRODUCT(C2:C17, D2:D17)</f>
         <v>3094.16</v>
       </c>
@@ -679,12 +680,12 @@
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="E5"/>
-    <hyperlink r:id="rId3" ref="E6"/>
-    <hyperlink r:id="rId4" ref="E7"/>
-    <hyperlink r:id="rId5" ref="E8"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>